--- a/sales.xlsx
+++ b/sales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\badowsr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB9B820-7F99-4AAF-893B-4FE09DD38FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91319A4E-6A41-4D30-8CE9-6B11F9DE0EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="345" yWindow="345" windowWidth="2985" windowHeight="705" xr2:uid="{891A67E8-E295-4ED5-8A59-53855659F9BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A33A633D-04A6-4E35-917D-330935F1B113}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>montly_sales</t>
+    <t>advertising_expense</t>
   </si>
   <si>
-    <t>advertising_expense</t>
+    <t>monthly_sales</t>
   </si>
 </sst>
 </file>
@@ -411,26 +411,50 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{354042EF-BE11-4995-84A3-480EFAA7B8C6}">
+  <we:reference id="wa104379190" version="2.0.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA104379190" version="2.0.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings>
+    <we:binding id="RangeSelect" type="matrix" appref="{9ADC6494-0335-4B22-8ED0-35B0ED4E9459}"/>
+    <we:binding id="InputY" type="matrix" appref="{088CE308-F7EE-4874-A3DC-20A341DDCACB}"/>
+    <we:binding id="InputX" type="matrix" appref="{DA652747-0794-4AB9-A48F-FD00E0CF9322}"/>
+    <we:binding id="Output" type="matrix" appref="{4BB5DE9B-F54E-48F3-92D4-3A4D6C8323B0}"/>
+  </we:bindings>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74380AF4-32B0-493C-AB74-7C152CFBFBB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38340C04-682D-4E2A-BAC6-19B7D01BAE1C}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -447,8 +471,7 @@
         <v>2849</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B31" si="0">A3*2.5</f>
-        <v>7122.5</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -456,7 +479,7 @@
         <v>1582</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B3:B31" si="0">A4*2.5</f>
         <v>3955</v>
       </c>
     </row>
@@ -465,8 +488,7 @@
         <v>1412</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>3530</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,8 +496,7 @@
         <v>1627</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>4067.5</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -492,8 +513,7 @@
         <v>1634</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -519,8 +539,7 @@
         <v>2934</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>7335</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -528,8 +547,7 @@
         <v>2413</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>6032.5</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -537,8 +555,7 @@
         <v>1196</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>2990</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -546,8 +563,7 @@
         <v>2891</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>7227.5</v>
+        <v>7227</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -555,8 +571,7 @@
         <v>1865</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>4662.5</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,8 +579,7 @@
         <v>1761</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>4402.5</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -573,8 +587,7 @@
         <v>2439</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>6097.5</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,8 +604,7 @@
         <v>2411</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>6027.5</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,8 +621,7 @@
         <v>2562</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
-        <v>6405</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -618,8 +629,7 @@
         <v>2767</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
-        <v>6917.5</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,8 +646,7 @@
         <v>2461</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>6152.5</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -645,8 +654,7 @@
         <v>1087</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
-        <v>2717.5</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,8 +662,7 @@
         <v>2763</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
-        <v>6907.5</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,8 +670,7 @@
         <v>1649</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
-        <v>4122.5</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -672,8 +678,7 @@
         <v>2573</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
-        <v>6432.5</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -681,8 +686,7 @@
         <v>2929</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>7322.5</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -696,15 +700,33 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" ref="A3:A31" ca="1" si="1">RANDBETWEEN(1000,3000)</f>
-        <v>1969</v>
+        <f t="shared" ref="A31" ca="1" si="1">RANDBETWEEN(1000,3000)</f>
+        <v>2947</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>4922.5</v>
+        <v>7367.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
+      <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x15:webExtension appRef="{9ADC6494-0335-4B22-8ED0-35B0ED4E9459}">
+          <xm:f>Sheet1!1:1048576</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{088CE308-F7EE-4874-A3DC-20A341DDCACB}">
+          <xm:f>Sheet1!$B$2:$B$31</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{DA652747-0794-4AB9-A48F-FD00E0CF9322}">
+          <xm:f>Sheet1!$A$2:$A$31</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{4BB5DE9B-F54E-48F3-92D4-3A4D6C8323B0}">
+          <xm:f>Sheet1!$E$2:$E$19</xm:f>
+        </x15:webExtension>
+      </x15:webExtensions>
+    </ext>
+  </extLst>
 </worksheet>
 </file>